--- a/tutorial/tutorial_data/pyscnet_scanpy_pbmc/B_centrality.xlsx
+++ b/tutorial/tutorial_data/pyscnet_scanpy_pbmc/B_centrality.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,5985 +489,6495 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPR56</t>
+          <t>CD8B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001285371270507483</v>
+        <v>0.0008294723642368398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1748760330578513</v>
+        <v>0.5775075987841946</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.2684210526315789</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00520072543877436</v>
+        <v>0.003955870904456604</v>
       </c>
       <c r="F2" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>122.5</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>110.375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SEPT5</t>
+          <t>LAG3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08097748934149332</v>
+        <v>0.0006151888765058068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2062952646239554</v>
+        <v>0.5637982195845698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06285714285714286</v>
+        <v>0.2263157894736842</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01040570229365974</v>
+        <v>0.00616894749858515</v>
       </c>
       <c r="F3" t="n">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
         <v>170</v>
       </c>
-      <c r="I3" t="n">
-        <v>190</v>
-      </c>
       <c r="J3" t="n">
-        <v>182.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AKR1C3</t>
+          <t>KLRG1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001027153764459493</v>
+        <v>0.001644750934770609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1916170763260026</v>
+        <v>0.6089743589743589</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01226602112152207</v>
+        <v>0.004562254576367983</v>
       </c>
       <c r="F4" t="n">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>127.5</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>164.5</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
-        <v>143.75</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GP9</t>
+          <t>CD8A</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0004323309279950409</v>
+        <v>0.001118011642653143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1918652849740933</v>
+        <v>0.5864197530864198</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06857142857142857</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01361476101250065</v>
+        <v>0.004093953231554743</v>
       </c>
       <c r="F5" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>174.5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>145.125</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAMP1</t>
+          <t>HLA-DRB1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03556454718058345</v>
+        <v>0.002022527823631055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2098016997167139</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01538746724037051</v>
+        <v>0.006075919686157113</v>
       </c>
       <c r="F6" t="n">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="G6" t="n">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="H6" t="n">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="I6" t="n">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="J6" t="n">
-        <v>184.5</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CLDN5</t>
+          <t>HLA-DRB5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005175071170720378</v>
+        <v>0.003209621255545185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1494651866801211</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009770309676128228</v>
+        <v>0.006368752812330735</v>
       </c>
       <c r="F7" t="n">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="G7" t="n">
-        <v>73</v>
+        <v>153.5</v>
       </c>
       <c r="H7" t="n">
-        <v>145.5</v>
+        <v>153.5</v>
       </c>
       <c r="I7" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J7" t="n">
-        <v>128.625</v>
+        <v>156.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PTCRA</t>
+          <t>RPS11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04969724209667414</v>
+        <v>0.002242119002330529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1512972420837589</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09142857142857143</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02651938557851096</v>
+        <v>0.004954601619543999</v>
       </c>
       <c r="F8" t="n">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="G8" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H8" t="n">
-        <v>189.5</v>
+        <v>47</v>
       </c>
       <c r="I8" t="n">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="J8" t="n">
-        <v>164.375</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CCL3</t>
+          <t>TIGIT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01298338393122396</v>
+        <v>0.001663852261677875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2009769335142469</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01007294466015469</v>
+        <v>0.005320278167980426</v>
       </c>
       <c r="F9" t="n">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="J9" t="n">
-        <v>152.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SNCA</t>
+          <t>GZMK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.053884999770967</v>
+        <v>0.001504267690067938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2057222222222223</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07428571428571429</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02511628612442984</v>
+        <v>0.004501314711362821</v>
       </c>
       <c r="F10" t="n">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>165.5</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>184.625</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ACRBP</t>
+          <t>CD74</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01454228693106253</v>
+        <v>0.001938809987066323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1577422790202343</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.007860107549697189</v>
+        <v>0.006039098533808407</v>
       </c>
       <c r="F11" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="H11" t="n">
-        <v>122.5</v>
+        <v>104</v>
       </c>
       <c r="I11" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J11" t="n">
-        <v>126.375</v>
+        <v>107.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C2orf88</t>
+          <t>HLA-DRA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0950744427107072</v>
+        <v>0.002502610166851354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1716338354577057</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007875359012295427</v>
+        <v>0.006077503614148531</v>
       </c>
       <c r="F12" t="n">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="G12" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H12" t="n">
-        <v>122.5</v>
+        <v>109</v>
       </c>
       <c r="I12" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J12" t="n">
-        <v>147.875</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ITGA2B</t>
+          <t>AC092580.4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03269712635380943</v>
+        <v>0.0006306698819728094</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2062952646239554</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01592562169001496</v>
+        <v>0.003284164094105691</v>
       </c>
       <c r="F13" t="n">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>180.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TMEM40</t>
+          <t>GZMA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05325473202611475</v>
+        <v>0.002256067406453659</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2074509803921569</v>
+        <v>0.6354515050167224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1085714285714286</v>
+        <v>0.4263157894736842</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0189324228077971</v>
+        <v>0.005865628965258682</v>
       </c>
       <c r="F14" t="n">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="G14" t="n">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="H14" t="n">
-        <v>199.5</v>
+        <v>43</v>
       </c>
       <c r="I14" t="n">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="J14" t="n">
-        <v>192.375</v>
+        <v>79.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NRGN</t>
+          <t>APMAP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0007352308363969891</v>
+        <v>0.001791076784068234</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1906306306306306</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005389280468380391</v>
+        <v>0.004481878530990904</v>
       </c>
       <c r="F15" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>104.5</v>
+        <v>17</v>
       </c>
       <c r="I15" t="n">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>110.375</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FOLR3</t>
+          <t>CCL4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01555062796093059</v>
+        <v>0.001923179404756768</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1916170763260026</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008176244531283879</v>
+        <v>0.004936039341720272</v>
       </c>
       <c r="F16" t="n">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="G16" t="n">
-        <v>127.5</v>
+        <v>47</v>
       </c>
       <c r="H16" t="n">
-        <v>122.5</v>
+        <v>47</v>
       </c>
       <c r="I16" t="n">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="J16" t="n">
-        <v>141.5</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AC147651.3</t>
+          <t>HOPX</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02241910404202778</v>
+        <v>0.002376078147108406</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1580789754535752</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008727564728044647</v>
+        <v>0.004954640863460174</v>
       </c>
       <c r="F17" t="n">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="G17" t="n">
-        <v>79</v>
+        <v>64.5</v>
       </c>
       <c r="H17" t="n">
-        <v>135</v>
+        <v>64.5</v>
       </c>
       <c r="I17" t="n">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="J17" t="n">
-        <v>136</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CLEC1B</t>
+          <t>CD37</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02034599126671624</v>
+        <v>0.002457497886276594</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1585867237687366</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04571428571428571</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01166665072793438</v>
+        <v>0.004860358053064819</v>
       </c>
       <c r="F18" t="n">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="G18" t="n">
-        <v>81</v>
+        <v>78.5</v>
       </c>
       <c r="H18" t="n">
-        <v>154.5</v>
+        <v>78.5</v>
       </c>
       <c r="I18" t="n">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="J18" t="n">
-        <v>144.625</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MMD</t>
+          <t>FGFBP2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03436067447661386</v>
+        <v>0.002885567723811299</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1582478632478632</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005688639020487683</v>
+        <v>0.005734823143706651</v>
       </c>
       <c r="F19" t="n">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="G19" t="n">
-        <v>80</v>
+        <v>116.5</v>
       </c>
       <c r="H19" t="n">
-        <v>104.5</v>
+        <v>116.5</v>
       </c>
       <c r="I19" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J19" t="n">
-        <v>121.875</v>
+        <v>122.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PLD4</t>
+          <t>CD68</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03400183135211478</v>
+        <v>0.002724862551659279</v>
       </c>
       <c r="C20" t="n">
-        <v>0.161879781420765</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006177288826600041</v>
+        <v>0.006284160725489113</v>
       </c>
       <c r="F20" t="n">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="G20" t="n">
-        <v>84</v>
+        <v>128.5</v>
       </c>
       <c r="H20" t="n">
-        <v>104.5</v>
+        <v>128.5</v>
       </c>
       <c r="I20" t="n">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="J20" t="n">
-        <v>125.625</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PRSS23</t>
+          <t>CDA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04362956457896038</v>
+        <v>0.001608933178524484</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1933681462140992</v>
+        <v>0.6397306397306397</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07428571428571429</v>
+        <v>0.4368421052631579</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01088928295240272</v>
+        <v>0.005845746815980271</v>
       </c>
       <c r="F21" t="n">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
-        <v>133</v>
+        <v>51.5</v>
       </c>
       <c r="H21" t="n">
-        <v>178</v>
+        <v>51.5</v>
       </c>
       <c r="I21" t="n">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="J21" t="n">
-        <v>170.25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LY6G6F</t>
+          <t>CFD</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03395852402244236</v>
+        <v>0.0009294140797823542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2165497076023392</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01270868465486421</v>
+        <v>0.005351288059127333</v>
       </c>
       <c r="F22" t="n">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="H22" t="n">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="I22" t="n">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="J22" t="n">
-        <v>187</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GSN</t>
+          <t>HLA-DPA1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.07665560601645542</v>
+        <v>0.002536184867055122</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2137373737373738</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005832035322832141</v>
+        <v>0.005759585177476426</v>
       </c>
       <c r="F23" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="G23" t="n">
-        <v>190.5</v>
+        <v>128.5</v>
       </c>
       <c r="H23" t="n">
-        <v>122.5</v>
+        <v>128.5</v>
       </c>
       <c r="I23" t="n">
         <v>142</v>
       </c>
       <c r="J23" t="n">
-        <v>162.75</v>
+        <v>124.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SERPINF1</t>
+          <t>BLVRB</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1050759529529023</v>
+        <v>0.00123851588005855</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1938743455497382</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0117663898241986</v>
+        <v>0.004740816975592325</v>
       </c>
       <c r="F24" t="n">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="J24" t="n">
-        <v>164.375</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SDPR</t>
+          <t>LGALS2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0494775104579138</v>
+        <v>0.001232960111666316</v>
       </c>
       <c r="C25" t="n">
-        <v>0.217503671071953</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09142857142857143</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01401146714456444</v>
+        <v>0.005421952761456252</v>
       </c>
       <c r="F25" t="n">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>202.5</v>
+        <v>30.5</v>
       </c>
       <c r="H25" t="n">
-        <v>189.5</v>
+        <v>30.5</v>
       </c>
       <c r="I25" t="n">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="J25" t="n">
-        <v>194.75</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CMTM5</t>
+          <t>AIF1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03869922323117793</v>
+        <v>0.001886763809027415</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1784578313253012</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005137649767396257</v>
+        <v>0.005689458837267854</v>
       </c>
       <c r="F26" t="n">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>110</v>
+        <v>90.5</v>
       </c>
       <c r="H26" t="n">
-        <v>104.5</v>
+        <v>90.5</v>
       </c>
       <c r="I26" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J26" t="n">
-        <v>127.375</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GP1BA</t>
+          <t>CTSW</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01991521810093236</v>
+        <v>0.002856802161002992</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1550994764397906</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007869540996764452</v>
+        <v>0.005593559056593277</v>
       </c>
       <c r="F27" t="n">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="G27" t="n">
-        <v>76</v>
+        <v>112.5</v>
       </c>
       <c r="H27" t="n">
-        <v>122.5</v>
+        <v>112.5</v>
       </c>
       <c r="I27" t="n">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="J27" t="n">
-        <v>128.375</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JAKMIP1</t>
+          <t>FCER1G</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.006708677459652493</v>
+        <v>0.001604120253964543</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1428351012536162</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005051602545155527</v>
+        <v>0.005659231084303753</v>
       </c>
       <c r="F28" t="n">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="G28" t="n">
         <v>69</v>
       </c>
       <c r="H28" t="n">
-        <v>145.5</v>
+        <v>69</v>
       </c>
       <c r="I28" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J28" t="n">
-        <v>113.375</v>
+        <v>74.75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CLEC10A</t>
+          <t>TYROBP</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02957439102089842</v>
+        <v>0.001759123995157677</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2043034482758621</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008630488587637186</v>
+        <v>0.005942842599426145</v>
       </c>
       <c r="F29" t="n">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="G29" t="n">
-        <v>161</v>
+        <v>64.5</v>
       </c>
       <c r="H29" t="n">
-        <v>122.5</v>
+        <v>64.5</v>
       </c>
       <c r="I29" t="n">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J29" t="n">
-        <v>154.375</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CLU</t>
+          <t>CST7</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01399846351894597</v>
+        <v>0.002232140649379227</v>
       </c>
       <c r="C30" t="n">
-        <v>0.204585635359116</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E30" t="n">
-        <v>0.006753709356242667</v>
+        <v>0.005237572721575269</v>
       </c>
       <c r="F30" t="n">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="G30" t="n">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="H30" t="n">
-        <v>164.5</v>
+        <v>69</v>
       </c>
       <c r="I30" t="n">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="J30" t="n">
-        <v>155.125</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LDLRAP1</t>
+          <t>RPL13</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.002083966030838661</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1301581722319859</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003282363524753271</v>
+        <v>0.005069510767062108</v>
       </c>
       <c r="F31" t="n">
-        <v>46.5</v>
+        <v>70</v>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>64.5</v>
       </c>
       <c r="H31" t="n">
-        <v>68</v>
+        <v>64.5</v>
       </c>
       <c r="I31" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J31" t="n">
-        <v>63.875</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GNG11</t>
+          <t>RPL32</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0180366883573891</v>
+        <v>0.003075483333144895</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1980213903743316</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06285714285714286</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E32" t="n">
-        <v>0.006310400894651757</v>
+        <v>0.005523575090852266</v>
       </c>
       <c r="F32" t="n">
-        <v>146.5</v>
+        <v>132</v>
       </c>
       <c r="G32" t="n">
-        <v>139.5</v>
+        <v>122.5</v>
       </c>
       <c r="H32" t="n">
-        <v>170</v>
+        <v>122.5</v>
       </c>
       <c r="I32" t="n">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="J32" t="n">
-        <v>151.75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PRR5</t>
+          <t>BRI3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.009762301895543836</v>
+        <v>0.001443667343430222</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1988187919463087</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00373175432714509</v>
+        <v>0.005401586417074901</v>
       </c>
       <c r="F33" t="n">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="G33" t="n">
-        <v>142.5</v>
+        <v>55.5</v>
       </c>
       <c r="H33" t="n">
-        <v>89</v>
+        <v>55.5</v>
       </c>
       <c r="I33" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J33" t="n">
-        <v>114.875</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CD160</t>
+          <t>CFP</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04227343312513238</v>
+        <v>0.001924125022382613</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1982864792503347</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01025953172680157</v>
+        <v>0.005738877394612017</v>
       </c>
       <c r="F34" t="n">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="G34" t="n">
-        <v>141</v>
+        <v>78.5</v>
       </c>
       <c r="H34" t="n">
-        <v>145.5</v>
+        <v>78.5</v>
       </c>
       <c r="I34" t="n">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="J34" t="n">
-        <v>163.375</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KLRB1</t>
+          <t>CXCR4</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04616777251599901</v>
+        <v>0.003126933378149353</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1951515151515152</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05142857142857143</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01394863797780688</v>
+        <v>0.005476563914749086</v>
       </c>
       <c r="F35" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G35" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H35" t="n">
-        <v>159.5</v>
+        <v>144</v>
       </c>
       <c r="I35" t="n">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="J35" t="n">
-        <v>168.875</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AP001189.4</t>
+          <t>TCL1A</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1021062135336715</v>
+        <v>0.003251930977116025</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2020736698499318</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05142857142857143</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006160567277393831</v>
+        <v>0.006230926087573036</v>
       </c>
       <c r="F36" t="n">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="G36" t="n">
-        <v>154</v>
+        <v>147.5</v>
       </c>
       <c r="H36" t="n">
-        <v>159.5</v>
+        <v>147.5</v>
       </c>
       <c r="I36" t="n">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="J36" t="n">
-        <v>166.125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAP3K7CL</t>
+          <t>HLA-DQA1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.002135794349906165</v>
+        <v>0.003625357400743572</v>
       </c>
       <c r="C37" t="n">
-        <v>0.173849765258216</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003308442196241845</v>
+        <v>0.005840238868751808</v>
       </c>
       <c r="F37" t="n">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="G37" t="n">
-        <v>105</v>
+        <v>169.5</v>
       </c>
       <c r="H37" t="n">
-        <v>68</v>
+        <v>169.5</v>
       </c>
       <c r="I37" t="n">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="J37" t="n">
-        <v>90.75</v>
+        <v>160.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LGALS2</t>
+          <t>HLA-DQA2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01570488642114425</v>
+        <v>0.004621985314502626</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2089139633286319</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1028571428571429</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="E38" t="n">
-        <v>0.008897444863194322</v>
+        <v>0.006463886167129241</v>
       </c>
       <c r="F38" t="n">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="G38" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H38" t="n">
-        <v>197.5</v>
+        <v>183</v>
       </c>
       <c r="I38" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J38" t="n">
-        <v>175.125</v>
+        <v>181.25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CA2</t>
+          <t>RPL21</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.05963597918909662</v>
+        <v>0.00361874264070765</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2068715083798883</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E39" t="n">
-        <v>0.006228287805503416</v>
+        <v>0.005748881540478801</v>
       </c>
       <c r="F39" t="n">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="G39" t="n">
-        <v>175</v>
+        <v>147.5</v>
       </c>
       <c r="H39" t="n">
-        <v>145.5</v>
+        <v>147.5</v>
       </c>
       <c r="I39" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J39" t="n">
-        <v>165.375</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ENHO</t>
+          <t>RPS27A</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.03924027532897058</v>
+        <v>0.00286531838519837</v>
       </c>
       <c r="C40" t="n">
-        <v>0.210697012802276</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007165652412279466</v>
+        <v>0.005633638780201299</v>
       </c>
       <c r="F40" t="n">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="G40" t="n">
-        <v>185.5</v>
+        <v>116.5</v>
       </c>
       <c r="H40" t="n">
-        <v>145.5</v>
+        <v>116.5</v>
       </c>
       <c r="I40" t="n">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="J40" t="n">
-        <v>166.75</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FCER1A</t>
+          <t>CD14</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03351249938177475</v>
+        <v>0.001280802747521202</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2051523545706371</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E41" t="n">
-        <v>0.006808800262996034</v>
+        <v>0.005186151257534871</v>
       </c>
       <c r="F41" t="n">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="G41" t="n">
-        <v>163.5</v>
+        <v>34</v>
       </c>
       <c r="H41" t="n">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="I41" t="n">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="J41" t="n">
-        <v>155.375</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MS4A6A</t>
+          <t>CHST12</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.05805262672770724</v>
+        <v>0.004301277625917132</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2065829846582985</v>
+        <v>0.7063197026022305</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06857142857142857</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="E42" t="n">
-        <v>0.005775639575216944</v>
+        <v>0.006124458458776376</v>
       </c>
       <c r="F42" t="n">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G42" t="n">
-        <v>173</v>
+        <v>161.5</v>
       </c>
       <c r="H42" t="n">
-        <v>174.5</v>
+        <v>161.5</v>
       </c>
       <c r="I42" t="n">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="J42" t="n">
-        <v>169.625</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MAL</t>
+          <t>CCL5</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.001828575500261161</v>
+        <v>0.003074934006166408</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1305022026431718</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E43" t="n">
-        <v>0.003750905380198731</v>
+        <v>0.005469028221989245</v>
       </c>
       <c r="F43" t="n">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="G43" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="H43" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I43" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J43" t="n">
-        <v>84.75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RGS18</t>
+          <t>CD79B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.002888407943735849</v>
+        <v>0.003159923801293537</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2007046070460705</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003890043934103094</v>
+        <v>0.005474976642123323</v>
       </c>
       <c r="F44" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G44" t="n">
-        <v>151</v>
+        <v>141.5</v>
       </c>
       <c r="H44" t="n">
-        <v>135</v>
+        <v>141.5</v>
       </c>
       <c r="I44" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5</v>
+        <v>132.75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GZMK</t>
+          <t>CEBPD</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.004041012303631865</v>
+        <v>0.002202449933671381</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1791051995163241</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E45" t="n">
-        <v>0.008449543453835867</v>
+        <v>0.005568732325313992</v>
       </c>
       <c r="F45" t="n">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="G45" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H45" t="n">
-        <v>145.5</v>
+        <v>98</v>
       </c>
       <c r="I45" t="n">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="J45" t="n">
-        <v>135.375</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CD2</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.002719630833938288</v>
+        <v>0.002856913148728434</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1424230769230769</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.5105263157894737</v>
       </c>
       <c r="E46" t="n">
-        <v>0.004325988078244827</v>
+        <v>0.005301828193460618</v>
       </c>
       <c r="F46" t="n">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G46" t="n">
-        <v>68</v>
+        <v>112.5</v>
       </c>
       <c r="H46" t="n">
-        <v>104.5</v>
+        <v>112.5</v>
       </c>
       <c r="I46" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J46" t="n">
-        <v>96.875</v>
+        <v>109.75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PTGS1</t>
+          <t>CD247</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.002636274802486825</v>
+        <v>0.001572041479588994</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2029041095890411</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003851013540570214</v>
+        <v>0.004296880862237751</v>
       </c>
       <c r="F47" t="n">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="G47" t="n">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H47" t="n">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="I47" t="n">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="J47" t="n">
-        <v>125.25</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SPARC</t>
+          <t>LGALS3</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.001188075905292257</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1698623853211009</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002403554553779609</v>
+        <v>0.005299938136710298</v>
       </c>
       <c r="F48" t="n">
-        <v>46.5</v>
+        <v>9</v>
       </c>
       <c r="G48" t="n">
+        <v>38</v>
+      </c>
+      <c r="H48" t="n">
+        <v>38</v>
+      </c>
+      <c r="I48" t="n">
         <v>94</v>
       </c>
-      <c r="H48" t="n">
-        <v>68</v>
-      </c>
-      <c r="I48" t="n">
-        <v>61</v>
-      </c>
       <c r="J48" t="n">
-        <v>67.375</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GAS2L1</t>
+          <t>S100A11</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.002226428590792224</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1300438981562774</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E49" t="n">
-        <v>0.002234779416035671</v>
+        <v>0.005879667051980684</v>
       </c>
       <c r="F49" t="n">
-        <v>46.5</v>
+        <v>76</v>
       </c>
       <c r="G49" t="n">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="H49" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="I49" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="J49" t="n">
-        <v>48.375</v>
+        <v>112.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PTGDR</t>
+          <t>LST1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.007056669689768757</v>
+        <v>0.001987107115339166</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1846882793017456</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0.002724719372474171</v>
+        <v>0.005636417148569922</v>
       </c>
       <c r="F50" t="n">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="G50" t="n">
-        <v>118.5</v>
+        <v>104</v>
       </c>
       <c r="H50" t="n">
-        <v>104.5</v>
+        <v>104</v>
       </c>
       <c r="I50" t="n">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="J50" t="n">
-        <v>103.5</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CD247</t>
+          <t>PDLIM1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02437346097037297</v>
+        <v>0.003731717244544925</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1587566988210075</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004405559745431507</v>
+        <v>0.005877486203251031</v>
       </c>
       <c r="F51" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G51" t="n">
-        <v>82</v>
+        <v>157.5</v>
       </c>
       <c r="H51" t="n">
-        <v>122.5</v>
+        <v>157.5</v>
       </c>
       <c r="I51" t="n">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="J51" t="n">
-        <v>118.375</v>
+        <v>156.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HAVCR2</t>
+          <t>RPS3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0107023533194207</v>
+        <v>0.001729495880016411</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2137373737373738</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07428571428571429</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00653868070149621</v>
+        <v>0.004873728245074356</v>
       </c>
       <c r="F52" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="G52" t="n">
-        <v>190.5</v>
+        <v>47</v>
       </c>
       <c r="H52" t="n">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="I52" t="n">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="J52" t="n">
-        <v>163.125</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FCRL6</t>
+          <t>HLA-A</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0180366883573891</v>
+        <v>0.001544984642039955</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1980213903743316</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06285714285714286</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E53" t="n">
-        <v>0.005706085319512292</v>
+        <v>0.004256860247280067</v>
       </c>
       <c r="F53" t="n">
-        <v>146.5</v>
+        <v>24</v>
       </c>
       <c r="G53" t="n">
-        <v>139.5</v>
+        <v>38</v>
       </c>
       <c r="H53" t="n">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="I53" t="n">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="J53" t="n">
-        <v>148.75</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLVRA</t>
+          <t>RPL9</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.07459396250783634</v>
+        <v>0.001689728904700828</v>
       </c>
       <c r="C54" t="n">
-        <v>0.215604075691412</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004856172420164873</v>
+        <v>0.004084649804024289</v>
       </c>
       <c r="F54" t="n">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="G54" t="n">
-        <v>196.5</v>
+        <v>22.5</v>
       </c>
       <c r="H54" t="n">
-        <v>135</v>
+        <v>22.5</v>
       </c>
       <c r="I54" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="J54" t="n">
-        <v>161.625</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TNFSF13B</t>
+          <t>RPS27</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03907224192477419</v>
+        <v>0.001590003804405023</v>
       </c>
       <c r="C55" t="n">
-        <v>0.217503671071953</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D55" t="n">
-        <v>0.12</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01113959880890664</v>
+        <v>0.004430960665760451</v>
       </c>
       <c r="F55" t="n">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="G55" t="n">
-        <v>202.5</v>
+        <v>34</v>
       </c>
       <c r="H55" t="n">
-        <v>201.5</v>
+        <v>34</v>
       </c>
       <c r="I55" t="n">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="J55" t="n">
-        <v>192.25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>F13A1</t>
+          <t>CST3</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.05972516747535742</v>
+        <v>0.002946220755184319</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1788888888888889</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003744803434708346</v>
+        <v>0.006274178418345342</v>
       </c>
       <c r="F56" t="n">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="G56" t="n">
-        <v>111</v>
+        <v>150.5</v>
       </c>
       <c r="H56" t="n">
-        <v>122.5</v>
+        <v>150.5</v>
       </c>
       <c r="I56" t="n">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="J56" t="n">
-        <v>132.125</v>
+        <v>150.25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SAMD3</t>
+          <t>HLA-B</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.006517631452765597</v>
+        <v>0.002271412223908435</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1846882793017456</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002542420281179617</v>
+        <v>0.004861590649815192</v>
       </c>
       <c r="F57" t="n">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="G57" t="n">
-        <v>118.5</v>
+        <v>84.5</v>
       </c>
       <c r="H57" t="n">
-        <v>104.5</v>
+        <v>84.5</v>
       </c>
       <c r="I57" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J57" t="n">
-        <v>100.75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AQP3</t>
+          <t>HLA-C</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01742105516916608</v>
+        <v>0.002374034210889539</v>
       </c>
       <c r="C58" t="n">
-        <v>0.157910447761194</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003161298637070735</v>
+        <v>0.004913770497603185</v>
       </c>
       <c r="F58" t="n">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="G58" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H58" t="n">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="I58" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="J58" t="n">
-        <v>110.75</v>
+        <v>86.75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GZMB</t>
+          <t>RPL31</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01217650442756962</v>
+        <v>0.001607684859000303</v>
       </c>
       <c r="C59" t="n">
-        <v>0.18515</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004535562756248649</v>
+        <v>0.003951178271678683</v>
       </c>
       <c r="F59" t="n">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="G59" t="n">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="H59" t="n">
-        <v>122.5</v>
+        <v>17</v>
       </c>
       <c r="I59" t="n">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
-        <v>122.625</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SPON2</t>
+          <t>RPS18</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.05481146189438989</v>
+        <v>0.001833285277286004</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1926137841352406</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04571428571428571</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E60" t="n">
-        <v>0.00804451118011352</v>
+        <v>0.004550987045913249</v>
       </c>
       <c r="F60" t="n">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="G60" t="n">
-        <v>131.5</v>
+        <v>47</v>
       </c>
       <c r="H60" t="n">
-        <v>154.5</v>
+        <v>47</v>
       </c>
       <c r="I60" t="n">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="J60" t="n">
-        <v>162.25</v>
+        <v>45.75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GSTP1</t>
+          <t>RPS3A</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.04910339749558553</v>
+        <v>0.002574848602189684</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2068715083798883</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E61" t="n">
-        <v>0.003020685149082643</v>
+        <v>0.005714900693018273</v>
       </c>
       <c r="F61" t="n">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="G61" t="n">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="H61" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I61" t="n">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="J61" t="n">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PLBD1</t>
+          <t>RPS10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02325785716873375</v>
+        <v>0.001985694268780868</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2168667642752562</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06857142857142857</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E62" t="n">
-        <v>0.007253054853724866</v>
+        <v>0.004941305408731326</v>
       </c>
       <c r="F62" t="n">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="G62" t="n">
-        <v>201</v>
+        <v>55.5</v>
       </c>
       <c r="H62" t="n">
-        <v>174.5</v>
+        <v>55.5</v>
       </c>
       <c r="I62" t="n">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="J62" t="n">
-        <v>172.875</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>XCL2</t>
+          <t>FCN1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03708442277584827</v>
+        <v>0.002549521404446404</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2060083449235049</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E63" t="n">
-        <v>0.005318029848389626</v>
+        <v>0.00606475770150833</v>
       </c>
       <c r="F63" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="H63" t="n">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="I63" t="n">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="J63" t="n">
-        <v>162.25</v>
+        <v>134.25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FGFBP2</t>
+          <t>HLA-DQB1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.008602408777403633</v>
+        <v>0.003301214993984619</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1972303595206392</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04571428571428571</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="E64" t="n">
-        <v>0.003310264079869812</v>
+        <v>0.00556255891774388</v>
       </c>
       <c r="F64" t="n">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="G64" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H64" t="n">
-        <v>154.5</v>
+        <v>144</v>
       </c>
       <c r="I64" t="n">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="J64" t="n">
-        <v>127.375</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HLA-DPA1</t>
+          <t>RPS6</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0002298850574712644</v>
+        <v>0.002531534862831915</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01828571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="E65" t="n">
-        <v>0.009879577390662428</v>
+        <v>0.005315097694568131</v>
       </c>
       <c r="F65" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G65" t="n">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="H65" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="I65" t="n">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="J65" t="n">
-        <v>97.25</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HLA-DRB1</t>
+          <t>RPL30</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.568144499178982e-05</v>
+        <v>0.002551580126393622</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01523809523809524</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E66" t="n">
-        <v>0.008008760672834445</v>
+        <v>0.005139873426118221</v>
       </c>
       <c r="F66" t="n">
-        <v>64.5</v>
+        <v>101</v>
       </c>
       <c r="G66" t="n">
-        <v>43.5</v>
+        <v>98</v>
       </c>
       <c r="H66" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="I66" t="n">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="J66" t="n">
-        <v>86.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CD9</t>
+          <t>RPL36</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1503077644539385</v>
+        <v>0.001560118863799179</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2197626112759644</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="D67" t="n">
-        <v>0.05142857142857143</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004691152001267093</v>
+        <v>0.00427084386792102</v>
       </c>
       <c r="F67" t="n">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="G67" t="n">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="H67" t="n">
-        <v>159.5</v>
+        <v>27</v>
       </c>
       <c r="I67" t="n">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="J67" t="n">
-        <v>172.125</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FCN1</t>
+          <t>GPX1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01313243780215143</v>
+        <v>0.003806316911433965</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2031824417009602</v>
+        <v>0.7116104868913857</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09714285714285714</v>
+        <v>0.5947368421052631</v>
       </c>
       <c r="E68" t="n">
-        <v>0.007978910598662762</v>
+        <v>0.005833891953396099</v>
       </c>
       <c r="F68" t="n">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="G68" t="n">
-        <v>159</v>
+        <v>167.5</v>
       </c>
       <c r="H68" t="n">
-        <v>194.5</v>
+        <v>167.5</v>
       </c>
       <c r="I68" t="n">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="J68" t="n">
-        <v>164.375</v>
+        <v>160.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PGRMC1</t>
+          <t>NCF2</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0004719762604067321</v>
+        <v>0.001804686858816141</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1421497120921305</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.4578947368421052</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002504870528204145</v>
+        <v>0.005158480257918624</v>
       </c>
       <c r="F69" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G69" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H69" t="n">
-        <v>104.5</v>
+        <v>62</v>
       </c>
       <c r="I69" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="J69" t="n">
-        <v>78.625</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CDA</t>
+          <t>B2M</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01125176603774535</v>
+        <v>0.002060259114106703</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2083263009845288</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1371428571428571</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01246922108285886</v>
+        <v>0.004671563682760094</v>
       </c>
       <c r="F70" t="n">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="G70" t="n">
-        <v>178.5</v>
+        <v>60.5</v>
       </c>
       <c r="H70" t="n">
-        <v>204</v>
+        <v>60.5</v>
       </c>
       <c r="I70" t="n">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="J70" t="n">
-        <v>178.125</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TYROBP</t>
+          <t>LCK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.04770242359458796</v>
+        <v>0.002009868651027712</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2210746268656717</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1485714285714286</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01173311911091532</v>
+        <v>0.004283109184643026</v>
       </c>
       <c r="F71" t="n">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="G71" t="n">
-        <v>205</v>
+        <v>30.5</v>
       </c>
       <c r="H71" t="n">
-        <v>207</v>
+        <v>30.5</v>
       </c>
       <c r="I71" t="n">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="J71" t="n">
-        <v>197.25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IFITM3</t>
+          <t>MS4A6A</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.042039311670408</v>
+        <v>0.001307501407287833</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2247647951441578</v>
+        <v>0.6291390728476821</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E72" t="n">
-        <v>0.008042569527666897</v>
+        <v>0.0048456839566382</v>
       </c>
       <c r="F72" t="n">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="G72" t="n">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="H72" t="n">
-        <v>180.5</v>
+        <v>34</v>
       </c>
       <c r="I72" t="n">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="J72" t="n">
-        <v>184.125</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>APOBEC3A</t>
+          <t>COTL1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001740026977528151</v>
+        <v>0.003906210799136381</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2057222222222223</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09142857142857143</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E73" t="n">
-        <v>0.008028406054994278</v>
+        <v>0.006202420410088</v>
       </c>
       <c r="F73" t="n">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="G73" t="n">
-        <v>165.5</v>
+        <v>174</v>
       </c>
       <c r="H73" t="n">
-        <v>189.5</v>
+        <v>174</v>
       </c>
       <c r="I73" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J73" t="n">
-        <v>155</v>
+        <v>170.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IGSF6</t>
+          <t>MATK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.003699716414796986</v>
+        <v>0.001349452729555585</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2062952646239554</v>
+        <v>0.6109324758842444</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1085714285714286</v>
+        <v>0.3631578947368421</v>
       </c>
       <c r="E74" t="n">
-        <v>0.009744045543752111</v>
+        <v>0.004154724184939216</v>
       </c>
       <c r="F74" t="n">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="G74" t="n">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="H74" t="n">
-        <v>199.5</v>
+        <v>14</v>
       </c>
       <c r="I74" t="n">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="J74" t="n">
-        <v>164.875</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IL1B</t>
+          <t>NKG7</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.002506673597582213</v>
+        <v>0.003255843199612194</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2026265389876881</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002908197593993892</v>
+        <v>0.005440868995413839</v>
       </c>
       <c r="F75" t="n">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
-        <v>156.5</v>
+        <v>98</v>
       </c>
       <c r="H75" t="n">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="I75" t="n">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="J75" t="n">
-        <v>116.875</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C5AR1</t>
+          <t>RPL10A</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0241471758793288</v>
+        <v>0.002569954279453179</v>
       </c>
       <c r="C76" t="n">
-        <v>0.214356005788712</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09714285714285714</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E76" t="n">
-        <v>0.007400280226102883</v>
+        <v>0.00511177329993982</v>
       </c>
       <c r="F76" t="n">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="G76" t="n">
-        <v>193</v>
+        <v>84.5</v>
       </c>
       <c r="H76" t="n">
-        <v>194.5</v>
+        <v>84.5</v>
       </c>
       <c r="I76" t="n">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="J76" t="n">
-        <v>176.625</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MAFB</t>
+          <t>RPL14</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.05118610868894335</v>
+        <v>0.002711337518136187</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2162335766423358</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01133934804192613</v>
+        <v>0.004531053179435399</v>
       </c>
       <c r="F77" t="n">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="G77" t="n">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="H77" t="n">
-        <v>205.5</v>
+        <v>69</v>
       </c>
       <c r="I77" t="n">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="J77" t="n">
-        <v>196.125</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CCL5</t>
+          <t>TYMP</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.003469711205667144</v>
+        <v>0.002246387713272842</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1728354725787631</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004814747147511761</v>
+        <v>0.006082929224974111</v>
       </c>
       <c r="F78" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G78" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="H78" t="n">
-        <v>104.5</v>
+        <v>134</v>
       </c>
       <c r="I78" t="n">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="J78" t="n">
-        <v>107.125</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GZMH</t>
+          <t>SERPINA1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.000295130479241128</v>
+        <v>0.001825868841401552</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1990860215053764</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D79" t="n">
-        <v>0.04</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E79" t="n">
-        <v>0.002588922901192077</v>
+        <v>0.005671208064870775</v>
       </c>
       <c r="F79" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>145</v>
+        <v>78.5</v>
       </c>
       <c r="H79" t="n">
-        <v>145.5</v>
+        <v>78.5</v>
       </c>
       <c r="I79" t="n">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="J79" t="n">
-        <v>107.625</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LST1</t>
+          <t>HLA-DPB1</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.03248261311569815</v>
+        <v>0.002544801272589191</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2125107604017217</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1028571428571429</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E80" t="n">
-        <v>0.007727545702138115</v>
+        <v>0.005588668110818961</v>
       </c>
       <c r="F80" t="n">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="G80" t="n">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="H80" t="n">
-        <v>197.5</v>
+        <v>134</v>
       </c>
       <c r="I80" t="n">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="J80" t="n">
-        <v>178.375</v>
+        <v>122.25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PPBP</t>
+          <t>LGALS1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001051727692121781</v>
+        <v>0.002584946450328506</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1765435041716329</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E81" t="n">
-        <v>0.003018519485984679</v>
+        <v>0.005850011587987719</v>
       </c>
       <c r="F81" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G81" t="n">
-        <v>108</v>
+        <v>122.5</v>
       </c>
       <c r="H81" t="n">
-        <v>89</v>
+        <v>122.5</v>
       </c>
       <c r="I81" t="n">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="J81" t="n">
-        <v>90.75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CCL4</t>
+          <t>HLA-DMA</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.005483282319177498</v>
+        <v>0.002951167601861125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1732397660818714</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E82" t="n">
-        <v>0.006336150932137586</v>
+        <v>0.005318750175822145</v>
       </c>
       <c r="F82" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G82" t="n">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H82" t="n">
-        <v>104.5</v>
+        <v>137</v>
       </c>
       <c r="I82" t="n">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="J82" t="n">
-        <v>117.875</v>
+        <v>123.75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S1PR5</t>
+          <t>MS4A1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.03152599890530924</v>
+        <v>0.00242506178019178</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1658678611422172</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E83" t="n">
-        <v>0.008787224454935738</v>
+        <v>0.004971088661291712</v>
       </c>
       <c r="F83" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="G83" t="n">
-        <v>86</v>
+        <v>84.5</v>
       </c>
       <c r="H83" t="n">
-        <v>122.5</v>
+        <v>84.5</v>
       </c>
       <c r="I83" t="n">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="J83" t="n">
-        <v>136.875</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FCER1G</t>
+          <t>RPS23</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.004202649821864622</v>
+        <v>0.00226128422341548</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2068715083798883</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D84" t="n">
-        <v>0.12</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E84" t="n">
-        <v>0.008720554065706177</v>
+        <v>0.004763679377166035</v>
       </c>
       <c r="F84" t="n">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G84" t="n">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="H84" t="n">
-        <v>201.5</v>
+        <v>73</v>
       </c>
       <c r="I84" t="n">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="J84" t="n">
-        <v>165.875</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GYG1</t>
+          <t>RPL13A</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.008572681181095275</v>
+        <v>0.001340577843761387</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1891698595146871</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="E85" t="n">
-        <v>0.003573204506259784</v>
+        <v>0.004243128345942333</v>
       </c>
       <c r="F85" t="n">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="G85" t="n">
-        <v>123.5</v>
+        <v>22.5</v>
       </c>
       <c r="H85" t="n">
-        <v>104.5</v>
+        <v>22.5</v>
       </c>
       <c r="I85" t="n">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="J85" t="n">
-        <v>112.75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MPP1</t>
+          <t>RPLP2</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.00842193106442104</v>
+        <v>0.002020120083638805</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1849188514357054</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003173192139799595</v>
+        <v>0.004942753142394856</v>
       </c>
       <c r="F86" t="n">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G86" t="n">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="H86" t="n">
-        <v>122.5</v>
+        <v>69</v>
       </c>
       <c r="I86" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="J86" t="n">
-        <v>113.125</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ALDH2</t>
+          <t>FCER2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.03107733251972995</v>
+        <v>0.004802542720675055</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2159183673469388</v>
+        <v>0.7392996108949417</v>
       </c>
       <c r="D87" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.6473684210526316</v>
       </c>
       <c r="E87" t="n">
-        <v>0.006696321662266041</v>
+        <v>0.006513834820203217</v>
       </c>
       <c r="F87" t="n">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G87" t="n">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="H87" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I87" t="n">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="J87" t="n">
-        <v>174.25</v>
+        <v>181.75</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ID2</t>
+          <t>SPI1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.03156577597731595</v>
+        <v>0.002418362624755093</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2152906976744186</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09142857142857143</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E88" t="n">
-        <v>0.006642841347714246</v>
+        <v>0.005898843994427755</v>
       </c>
       <c r="F88" t="n">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="G88" t="n">
-        <v>195</v>
+        <v>122.5</v>
       </c>
       <c r="H88" t="n">
-        <v>189.5</v>
+        <v>122.5</v>
       </c>
       <c r="I88" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J88" t="n">
-        <v>175.125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LGALS1</t>
+          <t>RPL10</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.00174637236396883</v>
+        <v>0.001820885536804143</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2040220385674931</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09142857142857143</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E89" t="n">
-        <v>0.006028513191068743</v>
+        <v>0.004725103891373118</v>
       </c>
       <c r="F89" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G89" t="n">
-        <v>160</v>
+        <v>55.5</v>
       </c>
       <c r="H89" t="n">
-        <v>189.5</v>
+        <v>55.5</v>
       </c>
       <c r="I89" t="n">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="J89" t="n">
-        <v>147.125</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100A8</t>
+          <t>RPL18A</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1212315376591689</v>
+        <v>0.003015274294795565</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1977570093457944</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D90" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E90" t="n">
-        <v>0.005817174472434949</v>
+        <v>0.005145298168791589</v>
       </c>
       <c r="F90" t="n">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="G90" t="n">
-        <v>138</v>
+        <v>116.5</v>
       </c>
       <c r="H90" t="n">
-        <v>164.5</v>
+        <v>116.5</v>
       </c>
       <c r="I90" t="n">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="J90" t="n">
-        <v>162.375</v>
+        <v>111.25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CLIC3</t>
+          <t>EAF2</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6.020799124247401e-05</v>
+        <v>0.003244053331407638</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1702528735632184</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="E91" t="n">
-        <v>0.002173031053867216</v>
+        <v>0.005684147442755891</v>
       </c>
       <c r="F91" t="n">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="G91" t="n">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H91" t="n">
-        <v>104.5</v>
+        <v>144</v>
       </c>
       <c r="I91" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="J91" t="n">
-        <v>79.875</v>
+        <v>139.75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100A11</t>
+          <t>CD72</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.014422945385485</v>
+        <v>0.003734696342038175</v>
       </c>
       <c r="C92" t="n">
-        <v>0.210997150997151</v>
+        <v>0.7063197026022305</v>
       </c>
       <c r="D92" t="n">
-        <v>0.04571428571428571</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004615783151992682</v>
+        <v>0.006022655931281457</v>
       </c>
       <c r="F92" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="G92" t="n">
-        <v>187.5</v>
+        <v>161.5</v>
       </c>
       <c r="H92" t="n">
-        <v>154.5</v>
+        <v>161.5</v>
       </c>
       <c r="I92" t="n">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="J92" t="n">
-        <v>149</v>
+        <v>160.25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ASGR1</t>
+          <t>RPS20</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.006342000232621753</v>
+        <v>0.002296609085783229</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2140462427745665</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D93" t="n">
-        <v>0.09714285714285714</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E93" t="n">
-        <v>0.007111222736633124</v>
+        <v>0.004989574407834875</v>
       </c>
       <c r="F93" t="n">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G93" t="n">
-        <v>192</v>
+        <v>90.5</v>
       </c>
       <c r="H93" t="n">
-        <v>194.5</v>
+        <v>90.5</v>
       </c>
       <c r="I93" t="n">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="J93" t="n">
-        <v>165.375</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HOPX</t>
+          <t>S100A9</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01050903119868637</v>
+        <v>0.002212252850928957</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1669898534385569</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003866866897999457</v>
+        <v>0.00517715029418717</v>
       </c>
       <c r="F94" t="n">
-        <v>128.5</v>
+        <v>74</v>
       </c>
       <c r="G94" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H94" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I94" t="n">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J94" t="n">
-        <v>103.625</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AIF1</t>
+          <t>RPS12</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.008450397326138106</v>
+        <v>0.002931170878861129</v>
       </c>
       <c r="C95" t="n">
-        <v>0.214978229317852</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="D95" t="n">
-        <v>0.09714285714285714</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="E95" t="n">
-        <v>0.006953296017145984</v>
+        <v>0.005102551029800798</v>
       </c>
       <c r="F95" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G95" t="n">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="H95" t="n">
-        <v>194.5</v>
+        <v>109</v>
       </c>
       <c r="I95" t="n">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="J95" t="n">
-        <v>167.875</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GZMA</t>
+          <t>APOBEC3G</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.09864164225069753</v>
+        <v>0.004425581358015573</v>
       </c>
       <c r="C96" t="n">
-        <v>0.199622641509434</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="D96" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="E96" t="n">
-        <v>0.009947692085282166</v>
+        <v>0.006333678890644109</v>
       </c>
       <c r="F96" t="n">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="G96" t="n">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="H96" t="n">
-        <v>164.5</v>
+        <v>172</v>
       </c>
       <c r="I96" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J96" t="n">
-        <v>175.625</v>
+        <v>174.25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IGFBP7</t>
+          <t>RPL5</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.001526093236611765</v>
+        <v>0.00337340250600225</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2023497267759563</v>
+        <v>0.6859205776173285</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09142857142857143</v>
+        <v>0.5421052631578948</v>
       </c>
       <c r="E97" t="n">
-        <v>0.006127091546230433</v>
+        <v>0.005581378514173065</v>
       </c>
       <c r="F97" t="n">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="G97" t="n">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="H97" t="n">
-        <v>189.5</v>
+        <v>137</v>
       </c>
       <c r="I97" t="n">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="J97" t="n">
-        <v>145.875</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IL32</t>
+          <t>RPL35A</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.002184788157508571</v>
+        <v>0.001901053876091765</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1361397058823529</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001785750714444079</v>
+        <v>0.004779507430467509</v>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="G98" t="n">
-        <v>53</v>
+        <v>55.5</v>
       </c>
       <c r="H98" t="n">
-        <v>68</v>
+        <v>55.5</v>
       </c>
       <c r="I98" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J98" t="n">
-        <v>67</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LGALS3</t>
+          <t>RPL11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01435542012635286</v>
+        <v>0.00216406792415666</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2095049504950495</v>
+        <v>0.6462585034013606</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E99" t="n">
-        <v>0.009912012204908886</v>
+        <v>0.004873354117826463</v>
       </c>
       <c r="F99" t="n">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="G99" t="n">
-        <v>182</v>
+        <v>60.5</v>
       </c>
       <c r="H99" t="n">
-        <v>205.5</v>
+        <v>60.5</v>
       </c>
       <c r="I99" t="n">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="J99" t="n">
-        <v>177.875</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TYMP</t>
+          <t>SAMD3</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0234404152533666</v>
+        <v>0.001562502377998423</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2060083449235049</v>
+        <v>0.6109324758842444</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1314285714285714</v>
+        <v>0.3631578947368421</v>
       </c>
       <c r="E100" t="n">
-        <v>0.009317351364413464</v>
+        <v>0.004111417362341139</v>
       </c>
       <c r="F100" t="n">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="G100" t="n">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H100" t="n">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="I100" t="n">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="J100" t="n">
-        <v>176.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TIGIT</t>
+          <t>P2RX5</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.03625990133032589</v>
+        <v>0.003579098684890873</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2051523545706371</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="D101" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="E101" t="n">
-        <v>0.00303623952841298</v>
+        <v>0.005974898160046318</v>
       </c>
       <c r="F101" t="n">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G101" t="n">
-        <v>163.5</v>
+        <v>165</v>
       </c>
       <c r="H101" t="n">
-        <v>164.5</v>
+        <v>165</v>
       </c>
       <c r="I101" t="n">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="J101" t="n">
-        <v>144.75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>KLRG1</t>
+          <t>CD3D</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.01547834565650276</v>
+        <v>0.001438166783906926</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1990860215053764</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D102" t="n">
-        <v>0.04</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0046173878847448</v>
+        <v>0.004091742554877584</v>
       </c>
       <c r="F102" t="n">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H102" t="n">
-        <v>145.5</v>
+        <v>17</v>
       </c>
       <c r="I102" t="n">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="J102" t="n">
-        <v>136.875</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>XCL1</t>
+          <t>GZMM</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.007065296914869422</v>
+        <v>0.001217846999801968</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2001621621621622</v>
+        <v>0.5956112852664577</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06285714285714286</v>
+        <v>0.3210526315789474</v>
       </c>
       <c r="E103" t="n">
-        <v>0.003029990641984019</v>
+        <v>0.003794783847458878</v>
       </c>
       <c r="F103" t="n">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>149.5</v>
+        <v>8</v>
       </c>
       <c r="H103" t="n">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="I103" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="J103" t="n">
-        <v>130.375</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FCGR3A</t>
+          <t>RPL27A</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.02676188824368608</v>
+        <v>0.00226068632966248</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2224024024024024</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06857142857142857</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E104" t="n">
-        <v>0.005240887239652802</v>
+        <v>0.004983388289627501</v>
       </c>
       <c r="F104" t="n">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="G104" t="n">
-        <v>206</v>
+        <v>90.5</v>
       </c>
       <c r="H104" t="n">
-        <v>174.5</v>
+        <v>90.5</v>
       </c>
       <c r="I104" t="n">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="J104" t="n">
-        <v>165.625</v>
+        <v>83.75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CST3</t>
+          <t>GNG7</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.01352235759609696</v>
+        <v>0.003859076762037797</v>
       </c>
       <c r="C105" t="n">
-        <v>0.215604075691412</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="E105" t="n">
-        <v>0.005690638678479638</v>
+        <v>0.005751540521860044</v>
       </c>
       <c r="F105" t="n">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G105" t="n">
-        <v>196.5</v>
+        <v>165</v>
       </c>
       <c r="H105" t="n">
-        <v>180.5</v>
+        <v>165</v>
       </c>
       <c r="I105" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J105" t="n">
-        <v>162.5</v>
+        <v>158.25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IFI30</t>
+          <t>EEF1A1</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.001363228942462039</v>
+        <v>0.001928040712757172</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2017983651226158</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D106" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E106" t="n">
-        <v>0.004687226619900078</v>
+        <v>0.004727116087269286</v>
       </c>
       <c r="F106" t="n">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G106" t="n">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="H106" t="n">
-        <v>164.5</v>
+        <v>47</v>
       </c>
       <c r="I106" t="n">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="J106" t="n">
-        <v>131.125</v>
+        <v>50.75</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SMCO4</t>
+          <t>FCGRT</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0001877622468755474</v>
+        <v>0.003290057546373503</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2001621621621622</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="D107" t="n">
-        <v>0.04</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E107" t="n">
-        <v>0.002962333270378071</v>
+        <v>0.006046760640936111</v>
       </c>
       <c r="F107" t="n">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="G107" t="n">
-        <v>149.5</v>
+        <v>150.5</v>
       </c>
       <c r="H107" t="n">
-        <v>145.5</v>
+        <v>150.5</v>
       </c>
       <c r="I107" t="n">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="J107" t="n">
-        <v>110.25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PRF1</t>
+          <t>RPS15A</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0002355575459023735</v>
+        <v>0.001773112171247659</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1806341463414634</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E108" t="n">
-        <v>0.001536950982131805</v>
+        <v>0.004583937898049319</v>
       </c>
       <c r="F108" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G108" t="n">
-        <v>115.5</v>
+        <v>47</v>
       </c>
       <c r="H108" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I108" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J108" t="n">
-        <v>79.125</v>
+        <v>44.75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100A12</t>
+          <t>CD79A</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.01100711874965231</v>
+        <v>0.002026031906697738</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1926137841352406</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D109" t="n">
-        <v>0.04571428571428571</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E109" t="n">
-        <v>0.005911027879384322</v>
+        <v>0.004604984919352286</v>
       </c>
       <c r="F109" t="n">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G109" t="n">
-        <v>131.5</v>
+        <v>78.5</v>
       </c>
       <c r="H109" t="n">
-        <v>154.5</v>
+        <v>78.5</v>
       </c>
       <c r="I109" t="n">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="J109" t="n">
-        <v>140</v>
+        <v>66.75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NCF2</t>
+          <t>PTPRCAP</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.000314955250915842</v>
+        <v>0.002521416592064576</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1921141374837873</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D110" t="n">
-        <v>0.04</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E110" t="n">
-        <v>0.003099139598591718</v>
+        <v>0.004709889809558888</v>
       </c>
       <c r="F110" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G110" t="n">
-        <v>130</v>
+        <v>90.5</v>
       </c>
       <c r="H110" t="n">
-        <v>145.5</v>
+        <v>90.5</v>
       </c>
       <c r="I110" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="J110" t="n">
-        <v>108.625</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FPR1</t>
+          <t>RPL23A</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0002729378996645467</v>
+        <v>0.002715845111434664</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1990860215053764</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D111" t="n">
-        <v>0.04571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="E111" t="n">
-        <v>0.003224904826875136</v>
+        <v>0.005106446477885708</v>
       </c>
       <c r="F111" t="n">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="G111" t="n">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="H111" t="n">
-        <v>154.5</v>
+        <v>104</v>
       </c>
       <c r="I111" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J111" t="n">
-        <v>115.625</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PLEKHF1</t>
+          <t>HLA-DMB</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.0001484159436443798</v>
+        <v>0.005099224656615902</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1736459554513482</v>
+        <v>0.7569721115537849</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.6789473684210526</v>
       </c>
       <c r="E112" t="n">
-        <v>0.001593803631375429</v>
+        <v>0.006602833253011882</v>
       </c>
       <c r="F112" t="n">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="G112" t="n">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="H112" t="n">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="I112" t="n">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="J112" t="n">
-        <v>75.75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PDIA3</t>
+          <t>C12orf75</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.003854261561019715</v>
+        <v>0.003011184175476982</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1601297297297297</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E113" t="n">
-        <v>0.002788271635203</v>
+        <v>0.005551751340786245</v>
       </c>
       <c r="F113" t="n">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G113" t="n">
-        <v>83</v>
+        <v>128.5</v>
       </c>
       <c r="H113" t="n">
-        <v>68</v>
+        <v>128.5</v>
       </c>
       <c r="I113" t="n">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="J113" t="n">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LYAR</t>
+          <t>GRN</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.04116409026600701</v>
+        <v>0.001907605883375352</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1974933333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="E114" t="n">
-        <v>0.004887336953925697</v>
+        <v>0.005438571724063905</v>
       </c>
       <c r="F114" t="n">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="G114" t="n">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="H114" t="n">
-        <v>122.5</v>
+        <v>104</v>
       </c>
       <c r="I114" t="n">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J114" t="n">
-        <v>138.875</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FGL2</t>
+          <t>FTH1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.0001650105210325234</v>
+        <v>0.002641999867686333</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1993539703903096</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D115" t="n">
-        <v>0.04</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E115" t="n">
-        <v>0.003169070388130982</v>
+        <v>0.005126898807991149</v>
       </c>
       <c r="F115" t="n">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="G115" t="n">
-        <v>147</v>
+        <v>116.5</v>
       </c>
       <c r="H115" t="n">
-        <v>145.5</v>
+        <v>116.5</v>
       </c>
       <c r="I115" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J115" t="n">
-        <v>111.875</v>
+        <v>105.25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CEBPB</t>
+          <t>S100A8</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.0002539616215401976</v>
+        <v>0.003018186854234357</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1894117647058824</v>
+        <v>0.6529209621993127</v>
       </c>
       <c r="D116" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.468421052631579</v>
       </c>
       <c r="E116" t="n">
-        <v>0.002962233174735453</v>
+        <v>0.005052628166754727</v>
       </c>
       <c r="F116" t="n">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G116" t="n">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="H116" t="n">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="I116" t="n">
         <v>76</v>
       </c>
       <c r="J116" t="n">
-        <v>102</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IGLL5</t>
+          <t>NPC2</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>0.006150278139623692</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1702528735632184</v>
+        <v>0.7851239669421488</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.7263157894736842</v>
       </c>
       <c r="E117" t="n">
-        <v>0.00351515827080025</v>
+        <v>0.007036225536684338</v>
       </c>
       <c r="F117" t="n">
-        <v>46.5</v>
+        <v>190</v>
       </c>
       <c r="G117" t="n">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="H117" t="n">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="I117" t="n">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="J117" t="n">
-        <v>76.875</v>
+        <v>190.75</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TCL1A</t>
+          <t>RPS13</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>0.002296533892965194</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1702528735632184</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E118" t="n">
-        <v>0.003603597287029443</v>
+        <v>0.005159321015374956</v>
       </c>
       <c r="F118" t="n">
-        <v>46.5</v>
+        <v>85</v>
       </c>
       <c r="G118" t="n">
-        <v>97</v>
+        <v>78.5</v>
       </c>
       <c r="H118" t="n">
-        <v>68</v>
+        <v>78.5</v>
       </c>
       <c r="I118" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J118" t="n">
-        <v>77.875</v>
+        <v>82.25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>KLRC1</t>
+          <t>HLA-DOB</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.04643142459914842</v>
+        <v>0.005275688142942045</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2026265389876881</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D119" t="n">
-        <v>0.05142857142857143</v>
+        <v>0.6947368421052631</v>
       </c>
       <c r="E119" t="n">
-        <v>0.006110938317528928</v>
+        <v>0.006994597142106132</v>
       </c>
       <c r="F119" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G119" t="n">
-        <v>156.5</v>
+        <v>188.5</v>
       </c>
       <c r="H119" t="n">
-        <v>159.5</v>
+        <v>188.5</v>
       </c>
       <c r="I119" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="J119" t="n">
-        <v>160.5</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>LITAF</t>
+          <t>TKT</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.02095238095238095</v>
+        <v>0.002854796614549402</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1413358778625954</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E120" t="n">
-        <v>0.006799812941868346</v>
+        <v>0.005577160169284778</v>
       </c>
       <c r="F120" t="n">
-        <v>150.5</v>
+        <v>117</v>
       </c>
       <c r="G120" t="n">
-        <v>65</v>
+        <v>139.5</v>
       </c>
       <c r="H120" t="n">
-        <v>89</v>
+        <v>139.5</v>
       </c>
       <c r="I120" t="n">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="J120" t="n">
-        <v>115.625</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NCR3</t>
+          <t>CD2</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>0.0007199383530784681</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1226158940397351</v>
+        <v>0.581039755351682</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.2789473684210526</v>
       </c>
       <c r="E121" t="n">
-        <v>0.003441348037804596</v>
+        <v>0.003193442709867005</v>
       </c>
       <c r="F121" t="n">
-        <v>46.5</v>
+        <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>47.5</v>
+        <v>5</v>
       </c>
       <c r="H121" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I121" t="n">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>57.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PLA2G12A</t>
+          <t>BANK1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>0.003237821419350138</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1393414863593603</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="E122" t="n">
-        <v>0.001365553191383739</v>
+        <v>0.005524157364553085</v>
       </c>
       <c r="F122" t="n">
-        <v>46.5</v>
+        <v>140</v>
       </c>
       <c r="G122" t="n">
-        <v>59</v>
+        <v>141.5</v>
       </c>
       <c r="H122" t="n">
-        <v>68</v>
+        <v>141.5</v>
       </c>
       <c r="I122" t="n">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="J122" t="n">
-        <v>53.125</v>
+        <v>134.75</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GIMAP5</t>
+          <t>RPS14</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.002160629555796188</v>
+        <v>0.002392577062428453</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1396041470311027</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D123" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E123" t="n">
-        <v>0.001872923682353744</v>
+        <v>0.004943699286366256</v>
       </c>
       <c r="F123" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G123" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H123" t="n">
-        <v>104.5</v>
+        <v>73</v>
       </c>
       <c r="I123" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J123" t="n">
-        <v>78.375</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TREML1</t>
+          <t>RPS5</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.01050903119868637</v>
+        <v>0.001969614394439555</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1409324452901998</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E124" t="n">
-        <v>0.004112627291408115</v>
+        <v>0.004600113569971431</v>
       </c>
       <c r="F124" t="n">
-        <v>128.5</v>
+        <v>61</v>
       </c>
       <c r="G124" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H124" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I124" t="n">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="J124" t="n">
-        <v>92.875</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MYL9</t>
+          <t>DUSP2</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.002118511483999653</v>
+        <v>0.002637950494129531</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1700574052812859</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D125" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E125" t="n">
-        <v>0.002846445910755763</v>
+        <v>0.005141152655556527</v>
       </c>
       <c r="F125" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G125" t="n">
-        <v>95</v>
+        <v>90.5</v>
       </c>
       <c r="H125" t="n">
-        <v>68</v>
+        <v>90.5</v>
       </c>
       <c r="I125" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J125" t="n">
-        <v>83.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NKG7</t>
+          <t>LTB</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.09179031884268833</v>
+        <v>0.00179379305884747</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2060083449235049</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="D126" t="n">
-        <v>0.06285714285714286</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E126" t="n">
-        <v>0.009116599185308473</v>
+        <v>0.004622966272557595</v>
       </c>
       <c r="F126" t="n">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="G126" t="n">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="H126" t="n">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="I126" t="n">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="J126" t="n">
-        <v>179.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PARVB</t>
+          <t>FTL</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>0.002008083738444601</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="E127" t="n">
-        <v>0.005431461019616647</v>
+        <v>0.004774658339176042</v>
       </c>
       <c r="F127" t="n">
-        <v>46.5</v>
+        <v>64</v>
       </c>
       <c r="G127" t="n">
-        <v>39.5</v>
+        <v>64.5</v>
       </c>
       <c r="H127" t="n">
-        <v>68</v>
+        <v>64.5</v>
       </c>
       <c r="I127" t="n">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="J127" t="n">
-        <v>70.75</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TPM4</t>
+          <t>RPL3</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>0.001591649344065395</v>
       </c>
       <c r="C128" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E128" t="n">
-        <v>0.006267439574934677</v>
+        <v>0.004210935486493313</v>
       </c>
       <c r="F128" t="n">
-        <v>46.5</v>
+        <v>31</v>
       </c>
       <c r="G128" t="n">
-        <v>39.5</v>
+        <v>30.5</v>
       </c>
       <c r="H128" t="n">
-        <v>68</v>
+        <v>30.5</v>
       </c>
       <c r="I128" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="J128" t="n">
-        <v>76</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GPX1</t>
+          <t>S100A4</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.000458719928494617</v>
+        <v>0.006658434441531445</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1752899408284024</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="E129" t="n">
-        <v>0.00228730303476203</v>
+        <v>0.006791808337970002</v>
       </c>
       <c r="F129" t="n">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="G129" t="n">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="H129" t="n">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="I129" t="n">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="J129" t="n">
-        <v>77.75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SMIM14</t>
+          <t>S100A6</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0006909166260079038</v>
+        <v>0.004268841730004213</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1769653524492234</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E130" t="n">
-        <v>0.002297605943303746</v>
+        <v>0.006209873633831793</v>
       </c>
       <c r="F130" t="n">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="G130" t="n">
-        <v>109</v>
+        <v>179.5</v>
       </c>
       <c r="H130" t="n">
-        <v>68</v>
+        <v>179.5</v>
       </c>
       <c r="I130" t="n">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="J130" t="n">
-        <v>79.25</v>
+        <v>175.25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PHACTR1</t>
+          <t>OAZ1</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.09341167036659515</v>
+        <v>0.001744946490363498</v>
       </c>
       <c r="C131" t="n">
-        <v>0.210697012802276</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D131" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E131" t="n">
-        <v>0.003777989310658041</v>
+        <v>0.004349121844699674</v>
       </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="G131" t="n">
-        <v>185.5</v>
+        <v>55.5</v>
       </c>
       <c r="H131" t="n">
-        <v>104.5</v>
+        <v>55.5</v>
       </c>
       <c r="I131" t="n">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="J131" t="n">
-        <v>148.75</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>H2AFY</t>
+          <t>TSPO</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>0.004526500089156652</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="D132" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E132" t="n">
-        <v>0.005346553950903221</v>
+        <v>0.006271695389883112</v>
       </c>
       <c r="F132" t="n">
-        <v>46.5</v>
+        <v>175</v>
       </c>
       <c r="G132" t="n">
-        <v>39.5</v>
+        <v>179.5</v>
       </c>
       <c r="H132" t="n">
-        <v>68</v>
+        <v>179.5</v>
       </c>
       <c r="I132" t="n">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="J132" t="n">
-        <v>70.25</v>
+        <v>177.5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FCGRT</t>
+          <t>RPLP0</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.0004609023421207805</v>
+        <v>0.001569465078492641</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1891698595146871</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D133" t="n">
-        <v>0.04</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E133" t="n">
-        <v>0.002694077955162505</v>
+        <v>0.004279659874478405</v>
       </c>
       <c r="F133" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="G133" t="n">
-        <v>123.5</v>
+        <v>38</v>
       </c>
       <c r="H133" t="n">
-        <v>145.5</v>
+        <v>38</v>
       </c>
       <c r="I133" t="n">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="J133" t="n">
-        <v>104.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HLA-DPB1</t>
+          <t>LYAR</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>0.001307292809539305</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.5993690851735016</v>
       </c>
       <c r="D134" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.331578947368421</v>
       </c>
       <c r="E134" t="n">
-        <v>0.002695953569400719</v>
+        <v>0.003747625035403813</v>
       </c>
       <c r="F134" t="n">
-        <v>46.5</v>
+        <v>15</v>
       </c>
       <c r="G134" t="n">
-        <v>39.5</v>
+        <v>9</v>
       </c>
       <c r="H134" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I134" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="J134" t="n">
-        <v>49.5</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FERMT3</t>
+          <t>CD40</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.08000538942271375</v>
+        <v>0.003007999366448277</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2083263009845288</v>
+        <v>0.6834532374100719</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="E135" t="n">
-        <v>0.004009359278251953</v>
+        <v>0.005368884668947055</v>
       </c>
       <c r="F135" t="n">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="G135" t="n">
-        <v>178.5</v>
+        <v>134</v>
       </c>
       <c r="H135" t="n">
-        <v>104.5</v>
+        <v>134</v>
       </c>
       <c r="I135" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J135" t="n">
-        <v>147.25</v>
+        <v>124.25</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CTSW</t>
+          <t>TSPAN13</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.04146688560481664</v>
+        <v>0.003669253046446609</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1660538116591928</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="D136" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E136" t="n">
-        <v>0.006314842799810325</v>
+        <v>0.005450279034607643</v>
       </c>
       <c r="F136" t="n">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G136" t="n">
-        <v>87.5</v>
+        <v>147.5</v>
       </c>
       <c r="H136" t="n">
-        <v>122.5</v>
+        <v>147.5</v>
       </c>
       <c r="I136" t="n">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="J136" t="n">
-        <v>134.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CST7</t>
+          <t>HVCN1</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.04856272044336432</v>
+        <v>0.004298866068090205</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1988187919463087</v>
+        <v>0.7116104868913857</v>
       </c>
       <c r="D137" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.5947368421052631</v>
       </c>
       <c r="E137" t="n">
-        <v>0.002988594417961193</v>
+        <v>0.005772039180916935</v>
       </c>
       <c r="F137" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G137" t="n">
-        <v>142.5</v>
+        <v>167.5</v>
       </c>
       <c r="H137" t="n">
-        <v>104.5</v>
+        <v>167.5</v>
       </c>
       <c r="I137" t="n">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="J137" t="n">
-        <v>127</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GNLY</t>
+          <t>SMIM14</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.09489247023231007</v>
+        <v>0.005210892054513918</v>
       </c>
       <c r="C138" t="n">
-        <v>0.210997150997151</v>
+        <v>0.7421875</v>
       </c>
       <c r="D138" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="E138" t="n">
-        <v>0.00319816394302503</v>
+        <v>0.0065084855816025</v>
       </c>
       <c r="F138" t="n">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G138" t="n">
-        <v>187.5</v>
+        <v>182</v>
       </c>
       <c r="H138" t="n">
-        <v>104.5</v>
+        <v>182</v>
       </c>
       <c r="I138" t="n">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="J138" t="n">
-        <v>145.5</v>
+        <v>183.25</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PYCARD</t>
+          <t>CTSS</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>0.002754943244751303</v>
       </c>
       <c r="C139" t="n">
-        <v>0.168509670079636</v>
+        <v>0.6959706959706959</v>
       </c>
       <c r="D139" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E139" t="n">
-        <v>0.001223474593227544</v>
+        <v>0.005762227326142259</v>
       </c>
       <c r="F139" t="n">
-        <v>46.5</v>
+        <v>112</v>
       </c>
       <c r="G139" t="n">
-        <v>91</v>
+        <v>147.5</v>
       </c>
       <c r="H139" t="n">
-        <v>42</v>
+        <v>147.5</v>
       </c>
       <c r="I139" t="n">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="J139" t="n">
-        <v>53.875</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>APOBEC3G</t>
+          <t>SAT1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.01749242152144845</v>
+        <v>0.004659168175450308</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1734426229508197</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E140" t="n">
-        <v>0.003083844129853673</v>
+        <v>0.006005664676266516</v>
       </c>
       <c r="F140" t="n">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="G140" t="n">
-        <v>102.5</v>
+        <v>174</v>
       </c>
       <c r="H140" t="n">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="I140" t="n">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="J140" t="n">
-        <v>99.625</v>
+        <v>171.25</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SRGN</t>
+          <t>CYB561A3</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.003750030417881107</v>
+        <v>0.005255049380175451</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1877313054499366</v>
+        <v>0.7279693486590039</v>
       </c>
       <c r="D141" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.6263157894736842</v>
       </c>
       <c r="E141" t="n">
-        <v>0.002647009142490991</v>
+        <v>0.006100029574443041</v>
       </c>
       <c r="F141" t="n">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="G141" t="n">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="H141" t="n">
-        <v>122.5</v>
+        <v>177</v>
       </c>
       <c r="I141" t="n">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="J141" t="n">
-        <v>104.875</v>
+        <v>176.75</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ABI3</t>
+          <t>PKIG</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.006549252865224232</v>
+        <v>0.00415634870757042</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1797572815533981</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D142" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="E142" t="n">
-        <v>0.003443455417789777</v>
+        <v>0.005840690063632838</v>
       </c>
       <c r="F142" t="n">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G142" t="n">
-        <v>113.5</v>
+        <v>169.5</v>
       </c>
       <c r="H142" t="n">
-        <v>104.5</v>
+        <v>169.5</v>
       </c>
       <c r="I142" t="n">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="J142" t="n">
-        <v>107.25</v>
+        <v>163.75</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HLA-DQA1</t>
+          <t>CCR7</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3.284072249589491e-05</v>
+        <v>0.003935592258414308</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01306122448979592</v>
+        <v>0.7063197026022305</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="E143" t="n">
-        <v>0.004067052326078471</v>
+        <v>0.005684491698026127</v>
       </c>
       <c r="F143" t="n">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="G143" t="n">
-        <v>42</v>
+        <v>161.5</v>
       </c>
       <c r="H143" t="n">
-        <v>68</v>
+        <v>161.5</v>
       </c>
       <c r="I143" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="J143" t="n">
-        <v>70.5</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LINC00936</t>
+          <t>CD3E</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.03679518688217044</v>
+        <v>0.003211592787480207</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2092090395480226</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="D144" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.5210526315789473</v>
       </c>
       <c r="E144" t="n">
-        <v>0.003124678650404009</v>
+        <v>0.005341218477186121</v>
       </c>
       <c r="F144" t="n">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="G144" t="n">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="H144" t="n">
-        <v>104.5</v>
+        <v>120</v>
       </c>
       <c r="I144" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J144" t="n">
-        <v>135.125</v>
+        <v>119.75</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>C9orf142</t>
+          <t>NEAT1</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.004712547404470936</v>
+        <v>0.003855081502480969</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1407984790874525</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E145" t="n">
-        <v>0.003548057677420201</v>
+        <v>0.005705793041304926</v>
       </c>
       <c r="F145" t="n">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="G145" t="n">
-        <v>62.5</v>
+        <v>157.5</v>
       </c>
       <c r="H145" t="n">
-        <v>68</v>
+        <v>157.5</v>
       </c>
       <c r="I145" t="n">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="J145" t="n">
-        <v>84.625</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HLA-DOB</t>
+          <t>PRF1</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.008511836918675516</v>
+        <v>0.00082346958024736</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1476769690927218</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="D146" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.3</v>
       </c>
       <c r="E146" t="n">
-        <v>0.003602904289975141</v>
+        <v>0.003563827264145863</v>
       </c>
       <c r="F146" t="n">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="G146" t="n">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="H146" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="I146" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="J146" t="n">
-        <v>90.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>GZMH</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>0.0016804904232171</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1414708691499522</v>
+        <v>0.6270627062706271</v>
       </c>
       <c r="D147" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="E147" t="n">
-        <v>0.001589007857384159</v>
+        <v>0.00436571241137233</v>
       </c>
       <c r="F147" t="n">
-        <v>46.5</v>
+        <v>39</v>
       </c>
       <c r="G147" t="n">
-        <v>66</v>
+        <v>30.5</v>
       </c>
       <c r="H147" t="n">
-        <v>42</v>
+        <v>30.5</v>
       </c>
       <c r="I147" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J147" t="n">
-        <v>49.125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ZAP70</t>
+          <t>GABARAP</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.001430250946479281</v>
+        <v>0.004746562218640326</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1381716417910448</v>
+        <v>0.7279693486590039</v>
       </c>
       <c r="D148" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.6263157894736842</v>
       </c>
       <c r="E148" t="n">
-        <v>0.001330947400808873</v>
+        <v>0.006225798709938992</v>
       </c>
       <c r="F148" t="n">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="G148" t="n">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="H148" t="n">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="I148" t="n">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="J148" t="n">
-        <v>63</v>
+        <v>176.75</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>GRN</t>
+          <t>FCRL6</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>0.001707766793528703</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1808547008547008</v>
+        <v>0.6188925081433225</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="E149" t="n">
-        <v>0.001355880335657637</v>
+        <v>0.004225738085268533</v>
       </c>
       <c r="F149" t="n">
-        <v>46.5</v>
+        <v>41</v>
       </c>
       <c r="G149" t="n">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="H149" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I149" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J149" t="n">
-        <v>67.375</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TTC38</t>
+          <t>CD99</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>0.003345995959370933</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1377860465116279</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D150" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E150" t="n">
-        <v>0.001158739729946818</v>
+        <v>0.00525266166228803</v>
       </c>
       <c r="F150" t="n">
-        <v>46.5</v>
+        <v>147</v>
       </c>
       <c r="G150" t="n">
-        <v>54.5</v>
+        <v>128.5</v>
       </c>
       <c r="H150" t="n">
-        <v>42</v>
+        <v>128.5</v>
       </c>
       <c r="I150" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="J150" t="n">
-        <v>44.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>C1orf162</t>
+          <t>NOSIP</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.06891576955348352</v>
+        <v>0.003459169643077897</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2100992907801419</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.531578947368421</v>
       </c>
       <c r="E151" t="n">
-        <v>0.001407316501041756</v>
+        <v>0.005322393194738858</v>
       </c>
       <c r="F151" t="n">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="G151" t="n">
-        <v>184</v>
+        <v>128.5</v>
       </c>
       <c r="H151" t="n">
-        <v>68</v>
+        <v>128.5</v>
       </c>
       <c r="I151" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="J151" t="n">
-        <v>121.5</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HVCN1</t>
+          <t>RAC1</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.001241379310344828</v>
+        <v>0.004378188694255725</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1797572815533981</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="E152" t="n">
-        <v>0.00185319551604921</v>
+        <v>0.006100361046404351</v>
       </c>
       <c r="F152" t="n">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="G152" t="n">
-        <v>113.5</v>
+        <v>174</v>
       </c>
       <c r="H152" t="n">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="I152" t="n">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="J152" t="n">
-        <v>79.625</v>
+        <v>172.25</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FCRLA</t>
+          <t>PSAP</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.006775423129473582</v>
+        <v>0.004951152119994012</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1445073170731707</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="E153" t="n">
-        <v>0.00252020166505264</v>
+        <v>0.006542097093462777</v>
       </c>
       <c r="F153" t="n">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="G153" t="n">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="H153" t="n">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="I153" t="n">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="J153" t="n">
-        <v>79.75</v>
+        <v>183.75</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PNOC</t>
+          <t>SNX2</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.02095238095238095</v>
+        <v>0.005595513789632876</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1634878587196468</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="D154" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="E154" t="n">
-        <v>0.005694423889989442</v>
+        <v>0.00644917500290683</v>
       </c>
       <c r="F154" t="n">
-        <v>150.5</v>
+        <v>188</v>
       </c>
       <c r="G154" t="n">
-        <v>85</v>
+        <v>185.5</v>
       </c>
       <c r="H154" t="n">
-        <v>89</v>
+        <v>185.5</v>
       </c>
       <c r="I154" t="n">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="J154" t="n">
-        <v>115.625</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HLA-DQB1</t>
+          <t>IL32</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6.568144499178982e-05</v>
+        <v>0.004275336979659049</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01523809523809524</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D155" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E155" t="n">
-        <v>0.003757746950114848</v>
+        <v>0.005878762428942592</v>
       </c>
       <c r="F155" t="n">
-        <v>64.5</v>
+        <v>170</v>
       </c>
       <c r="G155" t="n">
-        <v>43.5</v>
+        <v>157.5</v>
       </c>
       <c r="H155" t="n">
-        <v>68</v>
+        <v>157.5</v>
       </c>
       <c r="I155" t="n">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="J155" t="n">
-        <v>70</v>
+        <v>159.75</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CTSS</t>
+          <t>LYZ</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.0009974255572092162</v>
+        <v>0.00517536034833228</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1806341463414634</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="D156" t="n">
-        <v>0.01714285714285714</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="E156" t="n">
-        <v>0.00203965128464335</v>
+        <v>0.006466559030900758</v>
       </c>
       <c r="F156" t="n">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="G156" t="n">
-        <v>115.5</v>
+        <v>185.5</v>
       </c>
       <c r="H156" t="n">
-        <v>89</v>
+        <v>185.5</v>
       </c>
       <c r="I156" t="n">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="J156" t="n">
-        <v>85.375</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>EFHD2</t>
+          <t>HCST</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0001118754711916114</v>
+        <v>0.002789018792933014</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1690867579908676</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E157" t="n">
-        <v>0.001659989241438456</v>
+        <v>0.005258588896873899</v>
       </c>
       <c r="F157" t="n">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="G157" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H157" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="I157" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="J157" t="n">
-        <v>67.5</v>
+        <v>100.75</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CD79B</t>
+          <t>RPS25</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>0.001583890389580997</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1389493433395873</v>
+        <v>0.6312292358803987</v>
       </c>
       <c r="D158" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="E158" t="n">
-        <v>0.002522571558602926</v>
+        <v>0.004289455832634422</v>
       </c>
       <c r="F158" t="n">
-        <v>46.5</v>
+        <v>29</v>
       </c>
       <c r="G158" t="n">
-        <v>57.5</v>
+        <v>38</v>
       </c>
       <c r="H158" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I158" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J158" t="n">
-        <v>52.5</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ARPC5L</t>
+          <t>SH2D2A</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>0.001594011925951857</v>
       </c>
       <c r="C159" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="D159" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="E159" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.003786250891161377</v>
       </c>
       <c r="F159" t="n">
-        <v>46.5</v>
+        <v>32</v>
       </c>
       <c r="G159" t="n">
-        <v>34.5</v>
+        <v>10</v>
       </c>
       <c r="H159" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I159" t="n">
-        <v>132.5</v>
+        <v>7</v>
       </c>
       <c r="J159" t="n">
-        <v>63.875</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HIST1H2AC</t>
+          <t>GSTP1</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>0.003730327171077461</v>
       </c>
       <c r="C160" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.7011070110701108</v>
       </c>
       <c r="D160" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="E160" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.005738136314285489</v>
       </c>
       <c r="F160" t="n">
-        <v>46.5</v>
+        <v>156</v>
       </c>
       <c r="G160" t="n">
-        <v>34.5</v>
+        <v>153.5</v>
       </c>
       <c r="H160" t="n">
-        <v>42</v>
+        <v>153.5</v>
       </c>
       <c r="I160" t="n">
-        <v>132.5</v>
+        <v>138</v>
       </c>
       <c r="J160" t="n">
-        <v>63.875</v>
+        <v>150.25</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TNFRSF1B</t>
+          <t>KIAA0125</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.000862676941204904</v>
+        <v>0.002725703512570005</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1734426229508197</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D161" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E161" t="n">
-        <v>0.002151218564197939</v>
+        <v>0.005019949467414677</v>
       </c>
       <c r="F161" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G161" t="n">
-        <v>102.5</v>
+        <v>90.5</v>
       </c>
       <c r="H161" t="n">
-        <v>68</v>
+        <v>90.5</v>
       </c>
       <c r="I161" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J161" t="n">
-        <v>77.125</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>S100A6</t>
+          <t>RPS28</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>0.002342688252969586</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1666141732283465</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D162" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E162" t="n">
-        <v>0.001119644976157987</v>
+        <v>0.004696363278157737</v>
       </c>
       <c r="F162" t="n">
-        <v>46.5</v>
+        <v>87</v>
       </c>
       <c r="G162" t="n">
-        <v>89</v>
+        <v>78.5</v>
       </c>
       <c r="H162" t="n">
-        <v>42</v>
+        <v>78.5</v>
       </c>
       <c r="I162" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J162" t="n">
-        <v>52.875</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TUBB1</t>
+          <t>RPS4X</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.001435353064121189</v>
+        <v>0.001270485532331013</v>
       </c>
       <c r="C163" t="n">
-        <v>0.148714859437751</v>
+        <v>0.6050955414012739</v>
       </c>
       <c r="D163" t="n">
-        <v>0.02285714285714286</v>
+        <v>0.3473684210526315</v>
       </c>
       <c r="E163" t="n">
-        <v>0.001798119555086352</v>
+        <v>0.003746922819284191</v>
       </c>
       <c r="F163" t="n">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="G163" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="H163" t="n">
-        <v>104.5</v>
+        <v>11</v>
       </c>
       <c r="I163" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J163" t="n">
-        <v>79.125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GIMAP7</t>
+          <t>SH2D1A</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>0.0004040581853487222</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1350227894257065</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="D164" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E164" t="n">
-        <v>0.00103733248885957</v>
+        <v>0.002670781035233997</v>
       </c>
       <c r="F164" t="n">
-        <v>46.5</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>43.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BLNK</t>
+          <t>ISG20</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.006848529900392435</v>
+        <v>0.003951924328083378</v>
       </c>
       <c r="C165" t="n">
-        <v>0.16928</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="D165" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E165" t="n">
-        <v>0.002628784678271176</v>
+        <v>0.005625394029863655</v>
       </c>
       <c r="F165" t="n">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="G165" t="n">
-        <v>93</v>
+        <v>157.5</v>
       </c>
       <c r="H165" t="n">
-        <v>68</v>
+        <v>157.5</v>
       </c>
       <c r="I165" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="J165" t="n">
-        <v>86.75</v>
+        <v>151.25</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SNX29P2</t>
+          <t>RPSA</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0003251231527093596</v>
+        <v>0.001338257607841764</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1511428571428572</v>
+        <v>0.6148867313915858</v>
       </c>
       <c r="D166" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="E166" t="n">
-        <v>0.002760553967322965</v>
+        <v>0.004095764587011871</v>
       </c>
       <c r="F166" t="n">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G166" t="n">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="H166" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I166" t="n">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J166" t="n">
-        <v>72.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RP11-367G6.3</t>
+          <t>ARPC5L</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>0.003102937283663618</v>
       </c>
       <c r="C167" t="n">
-        <v>0.140664767331434</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D167" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E167" t="n">
-        <v>0.001770345051826038</v>
+        <v>0.005111072685033786</v>
       </c>
       <c r="F167" t="n">
-        <v>46.5</v>
+        <v>134</v>
       </c>
       <c r="G167" t="n">
-        <v>61</v>
+        <v>90.5</v>
       </c>
       <c r="H167" t="n">
-        <v>42</v>
+        <v>90.5</v>
       </c>
       <c r="I167" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J167" t="n">
-        <v>48.875</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MFSD1</t>
+          <t>PPAPDC1B</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.0004513786234446168</v>
+        <v>0.003511701267207012</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1660538116591928</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01142857142857143</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="E168" t="n">
-        <v>0.001927951007136449</v>
+        <v>0.005496708736559172</v>
       </c>
       <c r="F168" t="n">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="G168" t="n">
-        <v>87.5</v>
+        <v>139.5</v>
       </c>
       <c r="H168" t="n">
-        <v>68</v>
+        <v>139.5</v>
       </c>
       <c r="I168" t="n">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="J168" t="n">
-        <v>71.125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>VAMP8</t>
+          <t>CYBA</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>0.002244492958118504</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1377860465116279</v>
+        <v>0.6620209059233449</v>
       </c>
       <c r="D169" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.4894736842105263</v>
       </c>
       <c r="E169" t="n">
-        <v>0.001114218085806576</v>
+        <v>0.004822706167694505</v>
       </c>
       <c r="F169" t="n">
-        <v>46.5</v>
+        <v>79</v>
       </c>
       <c r="G169" t="n">
-        <v>54.5</v>
+        <v>90.5</v>
       </c>
       <c r="H169" t="n">
-        <v>42</v>
+        <v>90.5</v>
       </c>
       <c r="I169" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="J169" t="n">
-        <v>44</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SPIB</t>
+          <t>AP1S2</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>0.00320802438966231</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1389493433395873</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D170" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E170" t="n">
-        <v>0.002304725286721788</v>
+        <v>0.005368308210005772</v>
       </c>
       <c r="F170" t="n">
-        <v>46.5</v>
+        <v>137</v>
       </c>
       <c r="G170" t="n">
-        <v>57.5</v>
+        <v>122.5</v>
       </c>
       <c r="H170" t="n">
-        <v>42</v>
+        <v>122.5</v>
       </c>
       <c r="I170" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="J170" t="n">
-        <v>51.25</v>
+        <v>121.25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>KIAA0125</t>
+          <t>TPT1</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>0.002845778347768439</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1226158940397351</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="D171" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E171" t="n">
-        <v>0.002325863578017756</v>
+        <v>0.004722398070585449</v>
       </c>
       <c r="F171" t="n">
-        <v>46.5</v>
+        <v>116</v>
       </c>
       <c r="G171" t="n">
-        <v>47.5</v>
+        <v>84.5</v>
       </c>
       <c r="H171" t="n">
-        <v>42</v>
+        <v>84.5</v>
       </c>
       <c r="I171" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J171" t="n">
-        <v>49</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CD72</t>
+          <t>TMEM66</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>0.005001470326400828</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1407984790874525</v>
+        <v>0.7279693486590039</v>
       </c>
       <c r="D172" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.6263157894736842</v>
       </c>
       <c r="E172" t="n">
-        <v>0.001743501638893158</v>
+        <v>0.00617220901329315</v>
       </c>
       <c r="F172" t="n">
-        <v>46.5</v>
+        <v>182</v>
       </c>
       <c r="G172" t="n">
-        <v>62.5</v>
+        <v>177</v>
       </c>
       <c r="H172" t="n">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="I172" t="n">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="J172" t="n">
-        <v>49</v>
+        <v>176.75</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HINT1</t>
+          <t>RARRES3</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>0.003271875211845376</v>
       </c>
       <c r="C173" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="D173" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="E173" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.005011113168717832</v>
       </c>
       <c r="F173" t="n">
-        <v>46.5</v>
+        <v>144</v>
       </c>
       <c r="G173" t="n">
-        <v>34.5</v>
+        <v>116.5</v>
       </c>
       <c r="H173" t="n">
-        <v>42</v>
+        <v>116.5</v>
       </c>
       <c r="I173" t="n">
-        <v>132.5</v>
+        <v>74</v>
       </c>
       <c r="J173" t="n">
-        <v>63.875</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LAT2</t>
+          <t>MALAT1</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>0.001917254232006386</v>
       </c>
       <c r="C174" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="D174" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E174" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.004250984085586177</v>
       </c>
       <c r="F174" t="n">
-        <v>46.5</v>
+        <v>56</v>
       </c>
       <c r="G174" t="n">
-        <v>34.5</v>
+        <v>55.5</v>
       </c>
       <c r="H174" t="n">
-        <v>42</v>
+        <v>55.5</v>
       </c>
       <c r="I174" t="n">
-        <v>132.5</v>
+        <v>22</v>
       </c>
       <c r="J174" t="n">
-        <v>63.875</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>C5orf56</t>
+          <t>RPS29</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>0.001454843213260035</v>
       </c>
       <c r="C175" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.6109324758842444</v>
       </c>
       <c r="D175" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.3631578947368421</v>
       </c>
       <c r="E175" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.003797605175203982</v>
       </c>
       <c r="F175" t="n">
-        <v>46.5</v>
+        <v>22</v>
       </c>
       <c r="G175" t="n">
-        <v>34.5</v>
+        <v>14</v>
       </c>
       <c r="H175" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I175" t="n">
-        <v>132.5</v>
+        <v>9</v>
       </c>
       <c r="J175" t="n">
-        <v>63.875</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MARCH2</t>
+          <t>IL7R</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>0.00280434932851008</v>
       </c>
       <c r="C176" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.657439446366782</v>
       </c>
       <c r="D176" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="E176" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.004837064713232295</v>
       </c>
       <c r="F176" t="n">
-        <v>46.5</v>
+        <v>115</v>
       </c>
       <c r="G176" t="n">
-        <v>34.5</v>
+        <v>78.5</v>
       </c>
       <c r="H176" t="n">
-        <v>42</v>
+        <v>78.5</v>
       </c>
       <c r="I176" t="n">
-        <v>132.5</v>
+        <v>56</v>
       </c>
       <c r="J176" t="n">
-        <v>63.875</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>P2RX5</t>
+          <t>HLA-E</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>0.001647305653190498</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1223121387283237</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D177" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E177" t="n">
-        <v>0.002092992419206829</v>
+        <v>0.004287812301737655</v>
       </c>
       <c r="F177" t="n">
-        <v>46.5</v>
+        <v>37</v>
       </c>
       <c r="G177" t="n">
-        <v>46</v>
+        <v>41.5</v>
       </c>
       <c r="H177" t="n">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="I177" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J177" t="n">
-        <v>46.875</v>
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>LDHB</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.001913978241722201</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.004235105913404888</v>
+      </c>
+      <c r="F178" t="n">
+        <v>55</v>
+      </c>
+      <c r="G178" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="H178" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="I178" t="n">
+        <v>20</v>
+      </c>
+      <c r="J178" t="n">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>MYL12A</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.003025638290604829</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.6810035842293907</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.531578947368421</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.00519439895663731</v>
+      </c>
+      <c r="F179" t="n">
+        <v>129</v>
+      </c>
+      <c r="G179" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="H179" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="I179" t="n">
+        <v>90</v>
+      </c>
+      <c r="J179" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>FCRLA</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.003057051339300642</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.6810035842293907</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.531578947368421</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.005384136965100309</v>
+      </c>
+      <c r="F180" t="n">
+        <v>130</v>
+      </c>
+      <c r="G180" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="H180" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="I180" t="n">
+        <v>105</v>
+      </c>
+      <c r="J180" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>VPREB3</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.005807888898120329</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.7661290322580645</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.6947368421052631</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.006704347904938356</v>
+      </c>
+      <c r="F181" t="n">
+        <v>189</v>
+      </c>
+      <c r="G181" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="H181" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="I181" t="n">
+        <v>188</v>
+      </c>
+      <c r="J181" t="n">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>MARCH1</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.002223738923386192</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.657439446366782</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.4789473684210526</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.004683958731537402</v>
+      </c>
+      <c r="F182" t="n">
+        <v>75</v>
+      </c>
+      <c r="G182" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="H182" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="I182" t="n">
+        <v>45</v>
+      </c>
+      <c r="J182" t="n">
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SPIB</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.004529690743344071</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.005785507178051373</v>
+      </c>
+      <c r="F183" t="n">
+        <v>176</v>
+      </c>
+      <c r="G183" t="n">
+        <v>171</v>
+      </c>
+      <c r="H183" t="n">
+        <v>171</v>
+      </c>
+      <c r="I183" t="n">
+        <v>145</v>
+      </c>
+      <c r="J183" t="n">
+        <v>165.75</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PYCARD</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.002758727148106358</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.6643356643356644</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.4947368421052631</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.004976327710527841</v>
+      </c>
+      <c r="F184" t="n">
+        <v>113</v>
+      </c>
+      <c r="G184" t="n">
+        <v>98</v>
+      </c>
+      <c r="H184" t="n">
+        <v>98</v>
+      </c>
+      <c r="I184" t="n">
+        <v>71</v>
+      </c>
+      <c r="J184" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>LINC00926</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.003369590336950203</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.7011070110701108</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.5736842105263158</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.005647726349415433</v>
+      </c>
+      <c r="F185" t="n">
+        <v>148</v>
+      </c>
+      <c r="G185" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="H185" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="I185" t="n">
+        <v>127</v>
+      </c>
+      <c r="J185" t="n">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PNOC</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.003093366029726702</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.6810035842293907</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.531578947368421</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.005362194499058605</v>
+      </c>
+      <c r="F186" t="n">
+        <v>133</v>
+      </c>
+      <c r="G186" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="H186" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="I186" t="n">
+        <v>102</v>
+      </c>
+      <c r="J186" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>LY86</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.003948528001671159</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.7011070110701108</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.5736842105263158</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.005692734677933628</v>
+      </c>
+      <c r="F187" t="n">
+        <v>165</v>
+      </c>
+      <c r="G187" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="H187" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="I187" t="n">
+        <v>133</v>
+      </c>
+      <c r="J187" t="n">
+        <v>151.25</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>IRF8</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.00382904651247134</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.7063197026022305</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.5842105263157895</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.005731511662170543</v>
+      </c>
+      <c r="F188" t="n">
+        <v>160</v>
+      </c>
+      <c r="G188" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="I188" t="n">
+        <v>136</v>
+      </c>
+      <c r="J188" t="n">
+        <v>154.75</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PFN1</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.002726110461265693</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.6737588652482269</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.5157894736842105</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.004912756101416888</v>
+      </c>
+      <c r="F189" t="n">
+        <v>111</v>
+      </c>
+      <c r="G189" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="H189" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="I189" t="n">
+        <v>62</v>
+      </c>
+      <c r="J189" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>NPM1</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.002451283398033625</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.6397306397306397</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.4368421052631579</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.004410000137064041</v>
+      </c>
+      <c r="F190" t="n">
+        <v>93</v>
+      </c>
+      <c r="G190" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="H190" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="I190" t="n">
+        <v>33</v>
+      </c>
+      <c r="J190" t="n">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>NCR3</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.002136345399290915</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.6312292358803987</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.4157894736842105</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.004324860478630164</v>
+      </c>
+      <c r="F191" t="n">
+        <v>71</v>
+      </c>
+      <c r="G191" t="n">
+        <v>38</v>
+      </c>
+      <c r="H191" t="n">
+        <v>38</v>
+      </c>
+      <c r="I191" t="n">
+        <v>30</v>
+      </c>
+      <c r="J191" t="n">
+        <v>44.25</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>TALDO1</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.004202206984210336</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.7089552238805971</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.5894736842105263</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.005822551496330924</v>
+      </c>
+      <c r="F192" t="n">
+        <v>168</v>
+      </c>
+      <c r="G192" t="n">
+        <v>165</v>
+      </c>
+      <c r="H192" t="n">
+        <v>165</v>
+      </c>
+      <c r="I192" t="n">
+        <v>146</v>
+      </c>
+      <c r="J192" t="n">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
